--- a/Oracle/3factor_13factor_wicsmid_result_20170831.xlsx
+++ b/Oracle/3factor_13factor_wicsmid_result_20170831.xlsx
@@ -302,6 +302,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="182" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -434,7 +437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -481,6 +484,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -536,11 +542,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>323440, IR</a:t>
+              <a:t>323334, IR</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t> = 0.95</a:t>
+              <a:t> = 1.03,  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
+              <a:t>승률 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t>= 87.6%</a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR" altLang="en-US"/>
           </a:p>
@@ -925,319 +939,319 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="105"/>
                 <c:pt idx="0">
-                  <c:v>2.0256245462041189E-2</c:v>
+                  <c:v>1.9271257599420499E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.081182718453825E-2</c:v>
+                  <c:v>-1.7308229093136118E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.2132481805245954E-3</c:v>
+                  <c:v>9.0702479342830156E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.8278383951667707E-2</c:v>
+                  <c:v>7.095675624369524E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.4000373892008096E-3</c:v>
+                  <c:v>7.1676174664372816E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2881918917805377E-3</c:v>
+                  <c:v>2.1957702603767393E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.1434058021543088E-2</c:v>
+                  <c:v>-2.6335054892975607E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.3305373158615081E-2</c:v>
+                  <c:v>-3.710236160480529E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.6500725640980667E-2</c:v>
+                  <c:v>-2.9025991340054347E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.16331545419444893</c:v>
+                  <c:v>-0.10290501368692784</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.17040378512747534</c:v>
+                  <c:v>-8.4886917822470931E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.21683959590759194</c:v>
+                  <c:v>-6.1911240862845718E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.2010998675104978</c:v>
+                  <c:v>-3.8202764555608226E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.14081019670790029</c:v>
+                  <c:v>1.3826435825812222E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.21578364735938416</c:v>
+                  <c:v>-2.7386476997462328E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.14463879797459644</c:v>
+                  <c:v>-9.3778623723691279E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.14413854901694134</c:v>
+                  <c:v>-7.6319724350139007E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.10308843802460288</c:v>
+                  <c:v>-2.7125643120818443E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.12826275760178074</c:v>
+                  <c:v>1.2772315915265731E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-8.8236011360853572E-2</c:v>
+                  <c:v>5.28837414715293E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.10058107968653074</c:v>
+                  <c:v>2.1907911812106606E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-5.7764544863172951E-2</c:v>
+                  <c:v>8.6425457678976914E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3959428935237383E-3</c:v>
+                  <c:v>0.1651719914613714</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.9360432856231826E-2</c:v>
+                  <c:v>0.19634865067210194</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.5052901608698903E-2</c:v>
+                  <c:v>0.11225747440450839</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.0305740157197789E-2</c:v>
+                  <c:v>0.13640050124469449</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.0684431959579603E-2</c:v>
+                  <c:v>9.1250565035825515E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.7939269552338164E-2</c:v>
+                  <c:v>9.654011658575401E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.6287578582029383E-3</c:v>
+                  <c:v>0.11106490334808283</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-4.2874746541260889E-2</c:v>
+                  <c:v>7.2426133518252778E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.4347431508743513E-2</c:v>
+                  <c:v>7.2226602027546605E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.1207967238828811</c:v>
+                  <c:v>0.21151611062753628</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.14021958846931826</c:v>
+                  <c:v>0.16346296325451903</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.12103916915758373</c:v>
+                  <c:v>0.13821911970621492</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.6518352762027195E-3</c:v>
+                  <c:v>8.9517495940989233E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.128165558790184E-2</c:v>
+                  <c:v>9.5581868533044512E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.7306475104380574E-2</c:v>
+                  <c:v>0.1465298355652852</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.6683798446338716E-2</c:v>
+                  <c:v>0.14894109589495808</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.3099556368364693E-2</c:v>
+                  <c:v>0.22870600047887768</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.684959528398545E-2</c:v>
+                  <c:v>0.18643608500446274</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.9607299018849083E-2</c:v>
+                  <c:v>0.1589826601583112</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.6091122929358583E-2</c:v>
+                  <c:v>0.17421962862211193</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.8814154289348672E-2</c:v>
+                  <c:v>0.1949573055632311</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.8678168012849623E-2</c:v>
+                  <c:v>0.10143744594495352</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.7427360004450581E-2</c:v>
+                  <c:v>0.1580853801711688</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.11924562120874738</c:v>
+                  <c:v>0.24863221907680733</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.23033491132944572</c:v>
+                  <c:v>0.2370789557299251</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.15448104316463485</c:v>
+                  <c:v>0.21359730220020867</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.13121908473976029</c:v>
+                  <c:v>0.17441185974814521</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.20796009638827107</c:v>
+                  <c:v>0.21737914025136651</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.20475802722663583</c:v>
+                  <c:v>0.21251095642029538</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.28272910272194951</c:v>
+                  <c:v>0.31086474748265747</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.39398764376879836</c:v>
+                  <c:v>0.45662297414205311</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.41888396542839068</c:v>
+                  <c:v>0.46981570986821386</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.30567777691494546</c:v>
+                  <c:v>0.33544626869404759</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.27414404239714019</c:v>
+                  <c:v>0.31033802228370599</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.23692622402822949</c:v>
+                  <c:v>0.28183014214179769</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.15719561069061516</c:v>
+                  <c:v>0.18303608820381134</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8.5995182362336164E-2</c:v>
+                  <c:v>0.1709403374004963</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1209196774395529</c:v>
+                  <c:v>0.13783822238361454</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.12749960613120126</c:v>
+                  <c:v>0.1374532434918887</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.19835948603407627</c:v>
+                  <c:v>0.13400628211006427</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.23973860598316699</c:v>
+                  <c:v>0.12941093477978982</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.20958631426518137</c:v>
+                  <c:v>7.5583366235743354E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.13082513076570845</c:v>
+                  <c:v>-8.9658749437028229E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.13483274139435364</c:v>
+                  <c:v>2.149622884689173E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.15341108613305909</c:v>
+                  <c:v>4.6588170666178375E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.2116220451093771</c:v>
+                  <c:v>8.8648366726510108E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.2946254642070778</c:v>
+                  <c:v>0.17360454112785617</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.35696816886348182</c:v>
+                  <c:v>0.25130939407358821</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.38566665050385796</c:v>
+                  <c:v>0.25922760203355066</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.32358724548383677</c:v>
+                  <c:v>0.24276174578626331</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.36222536868172217</c:v>
+                  <c:v>0.33896244419235233</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.32104071399511236</c:v>
+                  <c:v>0.38593964272906311</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.30246821217844566</c:v>
+                  <c:v>0.35908623100102766</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.30779970854394523</c:v>
+                  <c:v>0.41188753916338805</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.3599772936400778</c:v>
+                  <c:v>0.47464012790849863</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.38842299469127517</c:v>
+                  <c:v>0.43396624098823122</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.41612701295699095</c:v>
+                  <c:v>0.49080733820870415</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.35482417546106104</c:v>
+                  <c:v>0.45822806519629022</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.26097694548341188</c:v>
+                  <c:v>0.3212370992217064</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.23613904631186922</c:v>
+                  <c:v>0.26918402102358352</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.2030245241345412</c:v>
+                  <c:v>0.26034152638161157</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.23653706702863708</c:v>
+                  <c:v>0.26663673958067902</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.21737576537767977</c:v>
+                  <c:v>0.22093204246336628</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.17290989908703203</c:v>
+                  <c:v>0.14217947786560947</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.13756058736218979</c:v>
+                  <c:v>0.145178605303386</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.21466610338152536</c:v>
+                  <c:v>0.12971581219970618</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.14899525707717709</c:v>
+                  <c:v>9.2756235904381867E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.12847039821934803</c:v>
+                  <c:v>0.11843793085185794</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.11630810826900362</c:v>
+                  <c:v>0.10734225437186184</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.13307461909328167</c:v>
+                  <c:v>0.11341677905050473</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.14815963880122784</c:v>
+                  <c:v>0.1617178263778718</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.14125531413533499</c:v>
+                  <c:v>0.14751934715590775</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.12431927411489174</c:v>
+                  <c:v>0.10957617705739864</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.14250682936915293</c:v>
+                  <c:v>0.1312882517215106</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.11884999195782542</c:v>
+                  <c:v>0.13574664089944521</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9.436733328169522E-2</c:v>
+                  <c:v>0.12924429828469663</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7.1621709787345056E-2</c:v>
+                  <c:v>0.10882934713434067</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-2.3125872065017594E-2</c:v>
+                  <c:v>7.8068304554756773E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-1.8384307126483757E-2</c:v>
+                  <c:v>9.4931645438274481E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-7.4063980948203989E-2</c:v>
+                  <c:v>3.9321057147229332E-2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-5.1232400824423818E-2</c:v>
+                  <c:v>2.304707401659134E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.17690048565114624</c:v>
+                  <c:v>1.6091719182573794E-3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.15003803247480563</c:v>
+                  <c:v>8.1162734013513482E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8028,44 +8042,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>561229</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>103871</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3093720"/>
-          <a:ext cx="4584589" cy="2755631"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -8085,7 +8061,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8123,7 +8099,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8131,44 +8107,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9159240" y="3078480"/>
-          <a:ext cx="4584589" cy="2755631"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>561229</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>218171</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5859780"/>
           <a:ext cx="4584589" cy="2755631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8199,7 +8137,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8237,7 +8175,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8245,44 +8183,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9166860" y="5852160"/>
-          <a:ext cx="4584589" cy="2755631"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>561229</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>111491</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="그림 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="8625840"/>
           <a:ext cx="4584589" cy="2755631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8313,7 +8213,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8351,7 +8251,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8389,7 +8289,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8427,7 +8327,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8465,7 +8365,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8503,7 +8403,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8541,7 +8441,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8549,44 +8449,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4587240" y="14135100"/>
-          <a:ext cx="4578493" cy="2755631"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>349393</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>73391</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="그림 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9182100" y="14112240"/>
           <a:ext cx="4578493" cy="2755631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8617,7 +8479,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8655,7 +8517,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8693,7 +8555,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8731,7 +8593,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8769,7 +8631,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8807,7 +8669,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8845,7 +8707,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8883,7 +8745,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8921,6 +8783,158 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9151620" y="22425660"/>
+          <a:ext cx="4578493" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>555133</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>4811</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="그림 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5867400"/>
+          <a:ext cx="4578493" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>555133</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>103871</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="그림 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8618220"/>
+          <a:ext cx="4578493" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>341773</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>119111</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="그림 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9174480" y="14157960"/>
+          <a:ext cx="4578493" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>555133</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>111491</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="그림 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
@@ -8928,7 +8942,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9151620" y="22425660"/>
+          <a:off x="0" y="3101340"/>
           <a:ext cx="4578493" cy="2755631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9206,8 +9220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GV232"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G28" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -11241,467 +11255,467 @@
       </c>
       <c r="H12">
         <f>CK18</f>
-        <v>0.90621741645417497</v>
+        <v>0.88512632367351696</v>
       </c>
       <c r="I12">
         <f t="shared" ref="I12:BT12" si="4">CL18</f>
-        <v>1.04491711372965</v>
+        <v>1.0483258355974101</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
-        <v>0.98162005940469499</v>
+        <v>0.95269512967554204</v>
       </c>
       <c r="K12">
         <f t="shared" si="4"/>
-        <v>1.0201320058916099</v>
+        <v>1.0722091940191001</v>
       </c>
       <c r="L12">
         <f t="shared" si="4"/>
-        <v>1.0256223344127</v>
+        <v>1.0587175466972201</v>
       </c>
       <c r="M12">
         <f t="shared" si="4"/>
-        <v>0.94952896349242799</v>
+        <v>0.943347527402562</v>
       </c>
       <c r="N12">
         <f t="shared" si="4"/>
-        <v>0.93122109626941596</v>
+        <v>0.91551426183888096</v>
       </c>
       <c r="O12">
         <f t="shared" si="4"/>
-        <v>0.93277470028772203</v>
+        <v>0.94033306504752601</v>
       </c>
       <c r="P12">
         <f t="shared" si="4"/>
-        <v>0.98495750367957502</v>
+        <v>0.99450204399236397</v>
       </c>
       <c r="Q12">
         <f t="shared" si="4"/>
-        <v>0.77045033028733301</v>
+        <v>0.75281625618103398</v>
       </c>
       <c r="R12">
         <f t="shared" si="4"/>
-        <v>1.00269699707662</v>
+        <v>0.97453209132093799</v>
       </c>
       <c r="S12">
         <f t="shared" si="4"/>
-        <v>1.0043235732025599</v>
+        <v>1.0292524293362399</v>
       </c>
       <c r="T12">
         <f t="shared" si="4"/>
-        <v>0.98234798703125903</v>
+        <v>1.0094856258879099</v>
       </c>
       <c r="U12">
         <f t="shared" si="4"/>
-        <v>0.97474952134066795</v>
+        <v>0.93417230779651195</v>
       </c>
       <c r="V12">
         <f t="shared" si="4"/>
-        <v>1.07627614530257</v>
+        <v>1.1930025354500999</v>
       </c>
       <c r="W12">
         <f t="shared" si="4"/>
-        <v>1.13858707772944</v>
+        <v>1.1313458470440401</v>
       </c>
       <c r="X12">
         <f t="shared" si="4"/>
-        <v>1.02894749347563</v>
+        <v>0.99926755352499497</v>
       </c>
       <c r="Y12">
         <f t="shared" si="4"/>
-        <v>0.99631634253132595</v>
+        <v>0.977311857499776</v>
       </c>
       <c r="Z12">
         <f t="shared" si="4"/>
-        <v>1.04172694731377</v>
+        <v>1.0702954341065101</v>
       </c>
       <c r="AA12">
         <f t="shared" si="4"/>
-        <v>1.02677951558738</v>
+        <v>1.05173049797721</v>
       </c>
       <c r="AB12">
         <f t="shared" si="4"/>
-        <v>0.99381674948127396</v>
+        <v>0.996186593883019</v>
       </c>
       <c r="AC12">
         <f t="shared" si="4"/>
-        <v>0.97049949046245398</v>
+        <v>0.95502480387028199</v>
       </c>
       <c r="AD12">
         <f t="shared" si="4"/>
-        <v>0.98590011620096396</v>
+        <v>1.0099128016045</v>
       </c>
       <c r="AE12">
         <f t="shared" si="4"/>
-        <v>1.0587652300420201</v>
+        <v>1.1103006709732699</v>
       </c>
       <c r="AF12">
         <f t="shared" si="4"/>
-        <v>0.93888484038909803</v>
+        <v>0.933470126812741</v>
       </c>
       <c r="AG12">
         <f t="shared" si="4"/>
-        <v>1.01109337302948</v>
+        <v>0.99668609239984696</v>
       </c>
       <c r="AH12">
         <f t="shared" si="4"/>
-        <v>1.05490502598634</v>
+        <v>1.0609243710452601</v>
       </c>
       <c r="AI12">
         <f t="shared" si="4"/>
-        <v>1.02001896005172</v>
+        <v>1.0327575015457799</v>
       </c>
       <c r="AJ12">
         <f t="shared" si="4"/>
-        <v>0.97877831495094503</v>
+        <v>0.96011673683509902</v>
       </c>
       <c r="AK12">
         <f t="shared" si="4"/>
-        <v>1.0156191284834499</v>
+        <v>1.0503601631509001</v>
       </c>
       <c r="AL12">
         <f t="shared" si="4"/>
-        <v>0.99222090095981097</v>
+        <v>1.0253160403027199</v>
       </c>
       <c r="AM12">
         <f t="shared" si="4"/>
-        <v>0.98016007377118397</v>
+        <v>0.993107646660634</v>
       </c>
       <c r="AN12">
         <f t="shared" si="4"/>
-        <v>1.06114947609355</v>
+        <v>1.0756356728924501</v>
       </c>
       <c r="AO12">
         <f t="shared" si="4"/>
-        <v>1.09029941086523</v>
+        <v>1.0743299098388199</v>
       </c>
       <c r="AP12">
         <f t="shared" si="4"/>
-        <v>1.0612215110748899</v>
+        <v>1.0578075315778099</v>
       </c>
       <c r="AQ12">
         <f t="shared" si="4"/>
-        <v>1.04239065654427</v>
+        <v>1.04024841905295</v>
       </c>
       <c r="AR12">
         <f t="shared" si="4"/>
-        <v>0.98943558767686701</v>
+        <v>1.00145213378083</v>
       </c>
       <c r="AS12">
         <f t="shared" si="4"/>
-        <v>0.95411476930720995</v>
+        <v>0.91252228679746294</v>
       </c>
       <c r="AT12">
         <f t="shared" si="4"/>
-        <v>1.06794955492613</v>
+        <v>1.08817032364282</v>
       </c>
       <c r="AU12">
         <f t="shared" si="4"/>
-        <v>1.01446235651238</v>
+        <v>1.0550173032049499</v>
       </c>
       <c r="AV12">
         <f t="shared" si="4"/>
-        <v>0.97648682001812204</v>
+        <v>0.965654947089025</v>
       </c>
       <c r="AW12">
         <f t="shared" si="4"/>
-        <v>1.0065910520841399</v>
+        <v>0.99802989562126299</v>
       </c>
       <c r="AX12">
         <f t="shared" si="4"/>
-        <v>1.0572575095621199</v>
+        <v>1.1152705015887501</v>
       </c>
       <c r="AY12">
         <f t="shared" si="4"/>
-        <v>0.89615500805967796</v>
+        <v>0.86635794134285604</v>
       </c>
       <c r="AZ12">
         <f t="shared" si="4"/>
-        <v>0.92789498396732895</v>
+        <v>0.937839278655897</v>
       </c>
       <c r="BA12">
         <f t="shared" si="4"/>
-        <v>1.0407391494770599</v>
+        <v>1.09439740461443</v>
       </c>
       <c r="BB12">
         <f t="shared" si="4"/>
-        <v>1.02345477417048</v>
+        <v>1.0215910901440399</v>
       </c>
       <c r="BC12">
         <f t="shared" si="4"/>
-        <v>0.99584814082648199</v>
+        <v>1.0120442442617901</v>
       </c>
       <c r="BD12">
         <f t="shared" si="4"/>
-        <v>1.01493041990393</v>
+        <v>1.0566975990131</v>
       </c>
       <c r="BE12">
         <f t="shared" si="4"/>
-        <v>1.06163231919521</v>
+        <v>1.0641078608043999</v>
       </c>
       <c r="BF12">
         <f t="shared" si="4"/>
-        <v>0.98098454928248502</v>
+        <v>0.97458354079993204</v>
       </c>
       <c r="BG12">
         <f t="shared" si="4"/>
-        <v>0.98430841678168202</v>
+        <v>0.98167010416684097</v>
       </c>
       <c r="BH12">
         <f t="shared" si="4"/>
-        <v>0.93847923277317302</v>
+        <v>0.93988757604763495</v>
       </c>
       <c r="BI12">
         <f t="shared" si="4"/>
-        <v>1.04486925106666</v>
+        <v>1.0393803307954901</v>
       </c>
       <c r="BJ12">
         <f t="shared" si="4"/>
-        <v>1.02339222841508</v>
+        <v>1.01812509545783</v>
       </c>
       <c r="BK12">
         <f t="shared" si="4"/>
-        <v>1.0322140598181899</v>
+        <v>1.03168726762658</v>
       </c>
       <c r="BL12">
         <f t="shared" si="4"/>
-        <v>1.0910756682112499</v>
+        <v>1.10218282686836</v>
       </c>
       <c r="BM12">
         <f t="shared" si="4"/>
-        <v>1.0279318836164599</v>
+        <v>0.98469879734961696</v>
       </c>
       <c r="BN12">
         <f t="shared" si="4"/>
-        <v>0.99751611800288098</v>
+        <v>1.0390346701404201</v>
       </c>
       <c r="BO12">
         <f t="shared" si="4"/>
-        <v>1.01604338315642</v>
+        <v>1.0188131080190701</v>
       </c>
       <c r="BP12">
         <f t="shared" si="4"/>
-        <v>1.0033773120195599</v>
+        <v>1.0169384851868399</v>
       </c>
       <c r="BQ12">
         <f t="shared" si="4"/>
-        <v>1.05444560395792</v>
+        <v>1.05550738383829</v>
       </c>
       <c r="BR12">
         <f t="shared" si="4"/>
-        <v>1.0423762724140999</v>
+        <v>1.0515922347612201</v>
       </c>
       <c r="BS12">
         <f t="shared" si="4"/>
-        <v>1.0664759562847601</v>
+        <v>1.0877781229371499</v>
       </c>
       <c r="BT12">
         <f t="shared" si="4"/>
-        <v>1.01944474821914</v>
+        <v>1.0098666601239601</v>
       </c>
       <c r="BU12">
         <f t="shared" ref="BU12:DH12" si="5">EX18</f>
-        <v>0.91035770750371103</v>
+        <v>0.89581407842418903</v>
       </c>
       <c r="BV12">
         <f t="shared" si="5"/>
-        <v>1.00814264580914</v>
+        <v>1.0081712601542001</v>
       </c>
       <c r="BW12">
         <f t="shared" si="5"/>
-        <v>0.99776335938660199</v>
+        <v>1.0049628222284499</v>
       </c>
       <c r="BX12">
         <f t="shared" si="5"/>
-        <v>1.0119566330657599</v>
+        <v>1.00878368226891</v>
       </c>
       <c r="BY12">
         <f t="shared" si="5"/>
-        <v>1.0191877584860101</v>
+        <v>1.0256854331995899</v>
       </c>
       <c r="BZ12">
         <f t="shared" si="5"/>
-        <v>1.0245665611654899</v>
+        <v>1.00792873581415</v>
       </c>
       <c r="CA12">
         <f t="shared" si="5"/>
-        <v>0.97795364062954704</v>
+        <v>0.97522570571255296</v>
       </c>
       <c r="CB12">
         <f t="shared" si="5"/>
-        <v>1.05034050767207</v>
+        <v>0.99810388246044601</v>
       </c>
       <c r="CC12">
         <f t="shared" si="5"/>
-        <v>1.0802169394174901</v>
+        <v>1.03958680446033</v>
       </c>
       <c r="CD12">
         <f t="shared" si="5"/>
-        <v>1.02796495481842</v>
+        <v>1.013102663245</v>
       </c>
       <c r="CE12">
         <f t="shared" si="5"/>
-        <v>1.0040459766830401</v>
+        <v>1.0101898071522399</v>
       </c>
       <c r="CF12">
         <f t="shared" si="5"/>
-        <v>1.021307295985</v>
+        <v>1.0389594074827899</v>
       </c>
       <c r="CG12">
         <f t="shared" si="5"/>
-        <v>0.987704851080205</v>
+        <v>0.98612471031107296</v>
       </c>
       <c r="CH12">
         <f t="shared" si="5"/>
-        <v>1.06426362846836</v>
+        <v>1.0551177509846099</v>
       </c>
       <c r="CI12">
         <f t="shared" si="5"/>
-        <v>1.0532783639235299</v>
+        <v>1.0684112894117801</v>
       </c>
       <c r="CJ12">
         <f t="shared" si="5"/>
-        <v>1.01204368300433</v>
+        <v>1.0213022657983799</v>
       </c>
       <c r="CK12">
         <f t="shared" si="5"/>
-        <v>1.00784751464406</v>
+        <v>0.99644091587706496</v>
       </c>
       <c r="CL12">
         <f t="shared" si="5"/>
-        <v>0.97832607156807805</v>
+        <v>0.995224260033165</v>
       </c>
       <c r="CM12">
         <f t="shared" si="5"/>
-        <v>0.994886651057307</v>
+        <v>1.0395775218012899</v>
       </c>
       <c r="CN12">
         <f t="shared" si="5"/>
-        <v>1.05880826615702</v>
+        <v>1.0744367049592001</v>
       </c>
       <c r="CO12">
         <f t="shared" si="5"/>
-        <v>1.0640643863572901</v>
+        <v>1.01857472627059</v>
       </c>
       <c r="CP12">
         <f t="shared" si="5"/>
-        <v>1.05183155182651</v>
+        <v>1.0709555802808</v>
       </c>
       <c r="CQ12">
         <f t="shared" si="5"/>
-        <v>1.08565541801608</v>
+        <v>1.0937823251010901</v>
       </c>
       <c r="CR12">
         <f t="shared" si="5"/>
-        <v>1.0242889669155699</v>
+        <v>0.99570461605050498</v>
       </c>
       <c r="CS12">
         <f t="shared" si="5"/>
-        <v>0.99015138730224495</v>
+        <v>1.0077245131863599</v>
       </c>
       <c r="CT12">
         <f t="shared" si="5"/>
-        <v>0.97675595153117301</v>
+        <v>0.99245599407973994</v>
       </c>
       <c r="CU12">
         <f t="shared" si="5"/>
-        <v>0.948060194862404</v>
+        <v>0.93726861998406197</v>
       </c>
       <c r="CV12">
         <f t="shared" si="5"/>
-        <v>1.0189847004075301</v>
+        <v>1.00590907069952</v>
       </c>
       <c r="CW12">
         <f t="shared" si="5"/>
-        <v>1.0315040350767699</v>
+        <v>1.03869834245757</v>
       </c>
       <c r="CX12">
         <f t="shared" si="5"/>
-        <v>0.98311665476233701</v>
+        <v>0.97893970592816104</v>
       </c>
       <c r="CY12">
         <f t="shared" si="5"/>
-        <v>0.99413117037253695</v>
+        <v>1.0171183262846599</v>
       </c>
       <c r="CZ12">
         <f t="shared" si="5"/>
-        <v>0.98423929914424702</v>
+        <v>0.96938901413451894</v>
       </c>
       <c r="DA12">
         <f t="shared" si="5"/>
-        <v>1.01695596581334</v>
+        <v>1.0070258949640301</v>
       </c>
       <c r="DB12">
         <f t="shared" si="5"/>
-        <v>1.13747307829468</v>
+        <v>1.06827281916525</v>
       </c>
       <c r="DC12">
         <f t="shared" si="5"/>
-        <v>0.98909256845440596</v>
+        <v>1.01738851795161</v>
       </c>
       <c r="DD12">
         <f t="shared" si="5"/>
-        <v>1.0053159877642199</v>
+        <v>1.02091268347353</v>
       </c>
       <c r="DE12">
         <f t="shared" si="5"/>
-        <v>0.990062013265677</v>
+        <v>1.0086502485022899</v>
       </c>
       <c r="DF12">
         <f t="shared" si="5"/>
-        <v>1.0316771670496401</v>
+        <v>1.03869673279509</v>
       </c>
       <c r="DG12">
         <f t="shared" si="5"/>
-        <v>1.0069460188284201</v>
+        <v>1.0246533364618999</v>
       </c>
       <c r="DH12">
         <f t="shared" si="5"/>
-        <v>1.00730319584369</v>
+        <v>0.98844136430217799</v>
       </c>
       <c r="DI12">
         <f t="shared" ref="DI12" si="6">GL18</f>
-        <v>0.97166266789199696</v>
+        <v>0.96040082625316403</v>
       </c>
       <c r="DJ12">
         <f t="shared" ref="DJ12" si="7">GM18</f>
-        <v>1.0046627788342699</v>
+        <v>1.00382130123405</v>
       </c>
       <c r="DK12">
         <f t="shared" ref="DK12" si="8">GN18</f>
-        <v>1.0062039215680101</v>
+        <v>1.0549666107590701</v>
       </c>
       <c r="DL12">
         <f t="shared" ref="DL12" si="9">GO18</f>
-        <v>1.0044277306513301</v>
+        <v>1.00389600070191</v>
       </c>
       <c r="DM12">
         <f t="shared" ref="DM12" si="10">GP18</f>
-        <v>1.0058993359817601</v>
+        <v>0.99833144792944595</v>
       </c>
       <c r="DN12">
         <f t="shared" ref="DN12" si="11">GQ18</f>
-        <v>1.0360605480928899</v>
+        <v>1.03293944022923</v>
       </c>
       <c r="DO12">
         <f t="shared" ref="DO12" si="12">GR18</f>
-        <v>1.01555177255431</v>
+        <v>1.0528588883679399</v>
       </c>
       <c r="DP12">
         <f t="shared" ref="DP12" si="13">GS18</f>
-        <v>1.0255398456337701</v>
+        <v>1.03957109617502</v>
       </c>
       <c r="DQ12">
         <f t="shared" ref="DQ12" si="14">GT18</f>
-        <v>1.03754554037337</v>
+        <v>1.0202837077521201</v>
       </c>
       <c r="DR12">
         <f t="shared" ref="DR12" si="15">GU18</f>
-        <v>1.21442557099588</v>
+        <v>1.0020670139019101</v>
       </c>
       <c r="DS12">
         <f t="shared" ref="DS12" si="16">GV18</f>
-        <v>0.96493642541362201</v>
+        <v>1.0042786048355199</v>
       </c>
     </row>
     <row r="13" spans="1:124" x14ac:dyDescent="0.4">
@@ -11710,423 +11724,423 @@
       </c>
       <c r="H13">
         <f ca="1">PRODUCT(OFFSET(H12,0,0,1,12))</f>
-        <v>0.61297788288277677</v>
+        <v>0.61199289502015608</v>
       </c>
       <c r="I13">
         <f t="shared" ref="I13:BT13" ca="1" si="17">PRODUCT(OFFSET(I12,0,0,1,12))</f>
-        <v>0.66447364441602308</v>
+        <v>0.69797724250742521</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.61985334370318801</v>
+        <v>0.62197361667714091</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.67962483144278885</v>
+        <v>0.77885997163815179</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.75854109695194349</v>
+        <v>0.8218172342271155</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.76100035482738615</v>
+        <v>0.775669865539373</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.79849811784357305</v>
+        <v>0.80359712097214053</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.89325404038776135</v>
+        <v>0.93945705194157114</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.98327597286129831</v>
+        <v>1.0507507071622246</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.99212009405631452</v>
+        <v>1.0525305345638356</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2497263066914746</v>
+        <v>1.335243173996479</v>
       </c>
       <c r="S13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2287912645382899</v>
+        <v>1.3837196195830361</v>
       </c>
       <c r="T13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2954007060930663</v>
+        <v>1.4926802971480033</v>
       </c>
       <c r="U13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2380868095995927</v>
+        <v>1.3802796498900742</v>
       </c>
       <c r="V13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2842492773934453</v>
+        <v>1.4726464477553671</v>
       </c>
       <c r="W13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2587485314568698</v>
+        <v>1.309608705707775</v>
       </c>
       <c r="X13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.127667258075423</v>
+        <v>1.1954860827422253</v>
       </c>
       <c r="Y13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0726847246171525</v>
+        <v>1.1486475195209369</v>
       </c>
       <c r="Z13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0934670833414815</v>
+        <v>1.2345021568585279</v>
       </c>
       <c r="AA13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0415021876900621</v>
+        <v>1.182621940522445</v>
       </c>
       <c r="AB13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.99421428419825797</v>
+        <v>1.1167032756968953</v>
       </c>
       <c r="AC13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0615739444443568</v>
+        <v>1.2057639469865067</v>
       </c>
       <c r="AD13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1926162327669336</v>
+        <v>1.3563922813347813</v>
       </c>
       <c r="AE13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2837304508557181</v>
+        <v>1.4207186686715882</v>
       </c>
       <c r="AF13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2638766267761319</v>
+        <v>1.3310811995719414</v>
       </c>
       <c r="AG13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.3319253428855542</v>
+        <v>1.4280201039730509</v>
       </c>
       <c r="AH13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2568667495604529</v>
+        <v>1.3074328826366988</v>
       </c>
       <c r="AI13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2724086554991147</v>
+        <v>1.3410095025325306</v>
       </c>
       <c r="AJ13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2654771466590486</v>
+        <v>1.3699132921489285</v>
       </c>
       <c r="AK13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2625144385310929</v>
+        <v>1.3778153185906066</v>
       </c>
       <c r="AL13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2512916518715795</v>
+        <v>1.3091708223903826</v>
       </c>
       <c r="AM13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.3333094417925404</v>
+        <v>1.4240288285371956</v>
       </c>
       <c r="AN13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2190375485898175</v>
+        <v>1.2422809233750183</v>
       </c>
       <c r="AO13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0659561655426952</v>
+        <v>1.0831361160913264</v>
       </c>
       <c r="AP13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0175024420368708</v>
+        <v>1.1033681027016573</v>
       </c>
       <c r="AQ13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.98129157877508244</v>
+        <v>1.0655917917202251</v>
       </c>
       <c r="AR13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.93747712356854451</v>
+        <v>1.0367004840294491</v>
       </c>
       <c r="AS13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.96163313966475883</v>
+        <v>1.0938904371133782</v>
       </c>
       <c r="AT13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0699979217579383</v>
+        <v>1.2756043658684513</v>
       </c>
       <c r="AU13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.98286611400995527</v>
+        <v>1.1424526037304326</v>
       </c>
       <c r="AV13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.95365134288025888</v>
+        <v>1.063026704019721</v>
       </c>
       <c r="AW13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.9165325760185502</v>
+        <v>1.0346610817113036</v>
       </c>
       <c r="AX13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.95138607113571827</v>
+        <v>1.0775292224096007</v>
       </c>
       <c r="AY13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.92091198465537449</v>
+        <v>0.98367126258747839</v>
       </c>
       <c r="AZ13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0607297731611278</v>
+        <v>1.171387793327846</v>
       </c>
       <c r="BA13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2472709369491477</v>
+        <v>1.3766575348172077</v>
       </c>
       <c r="BB13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2319221048256195</v>
+        <v>1.2386661492260989</v>
       </c>
       <c r="BC13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2007000081499397</v>
+        <v>1.2598162671855135</v>
       </c>
       <c r="BD13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2250495315722778</v>
+        <v>1.2682423065806627</v>
       </c>
       <c r="BE13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2111046057681123</v>
+        <v>1.2205236496312077</v>
       </c>
       <c r="BF13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2029060385552901</v>
+        <v>1.2106589677489497</v>
       </c>
       <c r="BG13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2781859953358004</v>
+        <v>1.3063216400965083</v>
       </c>
       <c r="BH13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.3848856805903766</v>
+        <v>1.4475210109636314</v>
       </c>
       <c r="BI13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.5043640654571409</v>
+        <v>1.555295809896964</v>
       </c>
       <c r="BJ13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.3106993248030361</v>
+        <v>1.3404678165821382</v>
       </c>
       <c r="BK13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2911685749398205</v>
+        <v>1.3273625548263863</v>
       </c>
       <c r="BL13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2480751280342761</v>
+        <v>1.2929790461478443</v>
       </c>
       <c r="BM13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1575713226648061</v>
+        <v>1.1834118001780023</v>
       </c>
       <c r="BN13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1477244168005858</v>
+        <v>1.2326695718387459</v>
       </c>
       <c r="BO13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.178848178655342</v>
+        <v>1.1957667235994036</v>
       </c>
       <c r="BP13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1346551605740043</v>
+        <v>1.1446087979346917</v>
       </c>
       <c r="BQ13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1877628317021394</v>
+        <v>1.1234096277781274</v>
       </c>
       <c r="BR13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2167925268019224</v>
+        <v>1.1064648555985452</v>
       </c>
       <c r="BS13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1999698265775776</v>
+        <v>1.0659668785481395</v>
       </c>
       <c r="BT13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1297253064320949</v>
+        <v>0.98993430072268362</v>
       </c>
       <c r="BU13">
         <f t="shared" ref="BU13:DH13" ca="1" si="18">PRODUCT(OFFSET(BU12,0,0,1,12))</f>
-        <v>1.1317893391805163</v>
+        <v>1.0184528266330544</v>
       </c>
       <c r="BV13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.2279500810453661</v>
+        <v>1.1211271655784854</v>
       </c>
       <c r="BW13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.2963072381314296</v>
+        <v>1.1733335597485626</v>
       </c>
       <c r="BX13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3684330598797456</v>
+        <v>1.247412136800524</v>
       </c>
       <c r="BY13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3685507744239336</v>
+        <v>1.26289199963404</v>
       </c>
       <c r="BZ13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3533232568612115</v>
+        <v>1.2268842083909042</v>
       </c>
       <c r="CA13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.2922453997919348</v>
+        <v>1.2114199000943613</v>
       </c>
       <c r="CB13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3146202894807915</v>
+        <v>1.2913573649914216</v>
       </c>
       <c r="CC13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3252186497548426</v>
+        <v>1.3901175784887934</v>
       </c>
       <c r="CD13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3054025704327803</v>
+        <v>1.3620205892553623</v>
       </c>
       <c r="CE13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3357105268818867</v>
+        <v>1.4397983575013296</v>
       </c>
       <c r="CF13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.4442778558817044</v>
+        <v>1.5589406901501253</v>
       </c>
       <c r="CG13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.4484943745685657</v>
+        <v>1.4940376208655217</v>
       </c>
       <c r="CH13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.4520822823842734</v>
+        <v>1.5267626076359866</v>
       </c>
       <c r="CI13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3326867267586739</v>
+        <v>1.4360906164939031</v>
       </c>
       <c r="CJ13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.199556813409582</v>
+        <v>1.2598169671478765</v>
       </c>
       <c r="CK13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.2077838740175655</v>
+        <v>1.2408288487292798</v>
       </c>
       <c r="CL13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.2361333648669672</v>
+        <v>1.2934503671140376</v>
       </c>
       <c r="CM13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.2421863567024021</v>
+        <v>1.272286029254444</v>
       </c>
       <c r="CN13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.2412430856288821</v>
+        <v>1.2447993627145686</v>
       </c>
       <c r="CO13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1538257338140572</v>
+        <v>1.1230953125926346</v>
       </c>
       <c r="CP13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1027433852270303</v>
+        <v>1.1103614031682265</v>
       </c>
       <c r="CQ13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1925302210084099</v>
+        <v>1.1075799298265907</v>
       </c>
       <c r="CR13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.0864614680523224</v>
+        <v>1.0302224468795271</v>
       </c>
       <c r="CS13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.0663368631332879</v>
+        <v>1.0563043957657978</v>
       </c>
       <c r="CT13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.0662406123669692</v>
+        <v>1.0572747584698274</v>
       </c>
       <c r="CU13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1261933880573043</v>
+        <v>1.1065355480145274</v>
       </c>
       <c r="CV13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1961434038476617</v>
+        <v>1.2097015914243057</v>
       </c>
       <c r="CW13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1824309755595175</v>
+        <v>1.1886950085800903</v>
       </c>
       <c r="CX13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1138337779015948</v>
+        <v>1.0990906808441017</v>
       </c>
       <c r="CY13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1382447169879424</v>
+        <v>1.1270261393403</v>
       </c>
       <c r="CZ13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1520675863207768</v>
+        <v>1.1689642352623966</v>
       </c>
       <c r="DA13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1756984630579577</v>
+        <v>1.2105754280609591</v>
       </c>
       <c r="DB13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.162915940375973</v>
+        <v>1.2001235777229686</v>
       </c>
       <c r="DC13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.0592350268001274</v>
+        <v>1.1604292034199017</v>
       </c>
       <c r="DD13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.087570611009063</v>
+        <v>1.2008865635738213</v>
       </c>
       <c r="DE13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1094491782733344</v>
+        <v>1.2228342163687678</v>
       </c>
       <c r="DF13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.162658532258531</v>
+        <v>1.2369380070995462</v>
       </c>
       <c r="DG13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3686086083975144</v>
+        <v>1.1933172946646255</v>
       </c>
       <c r="DH13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3115105216006999</v>
+        <v>1.1695887625272456</v>
       </c>
     </row>
     <row r="14" spans="1:124" x14ac:dyDescent="0.4">
@@ -12135,429 +12149,429 @@
       </c>
       <c r="H14" s="14">
         <f ca="1">H13-H11</f>
-        <v>2.0256245462041189E-2</v>
+        <v>1.9271257599420499E-2</v>
       </c>
       <c r="I14" s="14">
         <f t="shared" ref="I14:BT14" ca="1" si="19">I13-I11</f>
-        <v>-5.081182718453825E-2</v>
+        <v>-1.7308229093136118E-2</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-1.2132481805245954E-3</v>
+        <v>9.0702479342830156E-4</v>
       </c>
       <c r="K14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-2.8278383951667707E-2</v>
+        <v>7.095675624369524E-2</v>
       </c>
       <c r="L14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>8.4000373892008096E-3</v>
+        <v>7.1676174664372816E-2</v>
       </c>
       <c r="M14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>7.2881918917805377E-3</v>
+        <v>2.1957702603767393E-2</v>
       </c>
       <c r="N14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-3.1434058021543088E-2</v>
+        <v>-2.6335054892975607E-2</v>
       </c>
       <c r="O14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-8.3305373158615081E-2</v>
+        <v>-3.710236160480529E-2</v>
       </c>
       <c r="P14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-9.6500725640980667E-2</v>
+        <v>-2.9025991340054347E-2</v>
       </c>
       <c r="Q14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.16331545419444893</v>
+        <v>-0.10290501368692784</v>
       </c>
       <c r="R14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.17040378512747534</v>
+        <v>-8.4886917822470931E-2</v>
       </c>
       <c r="S14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.21683959590759194</v>
+        <v>-6.1911240862845718E-2</v>
       </c>
       <c r="T14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.2010998675104978</v>
+        <v>-3.8202764555608226E-3</v>
       </c>
       <c r="U14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.14081019670790029</v>
+        <v>1.3826435825812222E-3</v>
       </c>
       <c r="V14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.21578364735938416</v>
+        <v>-2.7386476997462328E-2</v>
       </c>
       <c r="W14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.14463879797459644</v>
+        <v>-9.3778623723691279E-2</v>
       </c>
       <c r="X14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.14413854901694134</v>
+        <v>-7.6319724350139007E-2</v>
       </c>
       <c r="Y14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.10308843802460288</v>
+        <v>-2.7125643120818443E-2</v>
       </c>
       <c r="Z14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.12826275760178074</v>
+        <v>1.2772315915265731E-2</v>
       </c>
       <c r="AA14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-8.8236011360853572E-2</v>
+        <v>5.28837414715293E-2</v>
       </c>
       <c r="AB14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.10058107968653074</v>
+        <v>2.1907911812106606E-2</v>
       </c>
       <c r="AC14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-5.7764544863172951E-2</v>
+        <v>8.6425457678976914E-2</v>
       </c>
       <c r="AD14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>1.3959428935237383E-3</v>
+        <v>0.1651719914613714</v>
       </c>
       <c r="AE14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>5.9360432856231826E-2</v>
+        <v>0.19634865067210194</v>
       </c>
       <c r="AF14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>4.5052901608698903E-2</v>
+        <v>0.11225747440450839</v>
       </c>
       <c r="AG14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>4.0305740157197789E-2</v>
+        <v>0.13640050124469449</v>
       </c>
       <c r="AH14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>4.0684431959579603E-2</v>
+        <v>9.1250565035825515E-2</v>
       </c>
       <c r="AI14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>2.7939269552338164E-2</v>
+        <v>9.654011658575401E-2</v>
       </c>
       <c r="AJ14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>6.6287578582029383E-3</v>
+        <v>0.11106490334808283</v>
       </c>
       <c r="AK14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-4.2874746541260889E-2</v>
+        <v>7.2426133518252778E-2</v>
       </c>
       <c r="AL14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>1.4347431508743513E-2</v>
+        <v>7.2226602027546605E-2</v>
       </c>
       <c r="AM14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.1207967238828811</v>
+        <v>0.21151611062753628</v>
       </c>
       <c r="AN14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.14021958846931826</v>
+        <v>0.16346296325451903</v>
       </c>
       <c r="AO14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.12103916915758373</v>
+        <v>0.13821911970621492</v>
       </c>
       <c r="AP14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>3.6518352762027195E-3</v>
+        <v>8.9517495940989233E-2</v>
       </c>
       <c r="AQ14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>1.128165558790184E-2</v>
+        <v>9.5581868533044512E-2</v>
       </c>
       <c r="AR14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>4.7306475104380574E-2</v>
+        <v>0.1465298355652852</v>
       </c>
       <c r="AS14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>1.6683798446338716E-2</v>
+        <v>0.14894109589495808</v>
       </c>
       <c r="AT14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>2.3099556368364693E-2</v>
+        <v>0.22870600047887768</v>
       </c>
       <c r="AU14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>2.684959528398545E-2</v>
+        <v>0.18643608500446274</v>
       </c>
       <c r="AV14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>4.9607299018849083E-2</v>
+        <v>0.1589826601583112</v>
       </c>
       <c r="AW14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>5.6091122929358583E-2</v>
+        <v>0.17421962862211193</v>
       </c>
       <c r="AX14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>6.8814154289348672E-2</v>
+        <v>0.1949573055632311</v>
       </c>
       <c r="AY14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>3.8678168012849623E-2</v>
+        <v>0.10143744594495352</v>
       </c>
       <c r="AZ14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>4.7427360004450581E-2</v>
+        <v>0.1580853801711688</v>
       </c>
       <c r="BA14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.11924562120874738</v>
+        <v>0.24863221907680733</v>
       </c>
       <c r="BB14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.23033491132944572</v>
+        <v>0.2370789557299251</v>
       </c>
       <c r="BC14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.15448104316463485</v>
+        <v>0.21359730220020867</v>
       </c>
       <c r="BD14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.13121908473976029</v>
+        <v>0.17441185974814521</v>
       </c>
       <c r="BE14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.20796009638827107</v>
+        <v>0.21737914025136651</v>
       </c>
       <c r="BF14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.20475802722663583</v>
+        <v>0.21251095642029538</v>
       </c>
       <c r="BG14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.28272910272194951</v>
+        <v>0.31086474748265747</v>
       </c>
       <c r="BH14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.39398764376879836</v>
+        <v>0.45662297414205311</v>
       </c>
       <c r="BI14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.41888396542839068</v>
+        <v>0.46981570986821386</v>
       </c>
       <c r="BJ14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.30567777691494546</v>
+        <v>0.33544626869404759</v>
       </c>
       <c r="BK14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.27414404239714019</v>
+        <v>0.31033802228370599</v>
       </c>
       <c r="BL14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.23692622402822949</v>
+        <v>0.28183014214179769</v>
       </c>
       <c r="BM14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.15719561069061516</v>
+        <v>0.18303608820381134</v>
       </c>
       <c r="BN14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>8.5995182362336164E-2</v>
+        <v>0.1709403374004963</v>
       </c>
       <c r="BO14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.1209196774395529</v>
+        <v>0.13783822238361454</v>
       </c>
       <c r="BP14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.12749960613120126</v>
+        <v>0.1374532434918887</v>
       </c>
       <c r="BQ14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.19835948603407627</v>
+        <v>0.13400628211006427</v>
       </c>
       <c r="BR14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.23973860598316699</v>
+        <v>0.12941093477978982</v>
       </c>
       <c r="BS14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.20958631426518137</v>
+        <v>7.5583366235743354E-2</v>
       </c>
       <c r="BT14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.13082513076570845</v>
+        <v>-8.9658749437028229E-3</v>
       </c>
       <c r="BU14" s="14">
         <f t="shared" ref="BU14:DH14" ca="1" si="20">BU13-BU11</f>
-        <v>0.13483274139435364</v>
+        <v>2.149622884689173E-2</v>
       </c>
       <c r="BV14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.15341108613305909</v>
+        <v>4.6588170666178375E-2</v>
       </c>
       <c r="BW14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.2116220451093771</v>
+        <v>8.8648366726510108E-2</v>
       </c>
       <c r="BX14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.2946254642070778</v>
+        <v>0.17360454112785617</v>
       </c>
       <c r="BY14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.35696816886348182</v>
+        <v>0.25130939407358821</v>
       </c>
       <c r="BZ14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.38566665050385796</v>
+        <v>0.25922760203355066</v>
       </c>
       <c r="CA14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.32358724548383677</v>
+        <v>0.24276174578626331</v>
       </c>
       <c r="CB14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.36222536868172217</v>
+        <v>0.33896244419235233</v>
       </c>
       <c r="CC14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.32104071399511236</v>
+        <v>0.38593964272906311</v>
       </c>
       <c r="CD14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.30246821217844566</v>
+        <v>0.35908623100102766</v>
       </c>
       <c r="CE14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.30779970854394523</v>
+        <v>0.41188753916338805</v>
       </c>
       <c r="CF14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.3599772936400778</v>
+        <v>0.47464012790849863</v>
       </c>
       <c r="CG14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.38842299469127517</v>
+        <v>0.43396624098823122</v>
       </c>
       <c r="CH14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.41612701295699095</v>
+        <v>0.49080733820870415</v>
       </c>
       <c r="CI14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.35482417546106104</v>
+        <v>0.45822806519629022</v>
       </c>
       <c r="CJ14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.26097694548341188</v>
+        <v>0.3212370992217064</v>
       </c>
       <c r="CK14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.23613904631186922</v>
+        <v>0.26918402102358352</v>
       </c>
       <c r="CL14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.2030245241345412</v>
+        <v>0.26034152638161157</v>
       </c>
       <c r="CM14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.23653706702863708</v>
+        <v>0.26663673958067902</v>
       </c>
       <c r="CN14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.21737576537767977</v>
+        <v>0.22093204246336628</v>
       </c>
       <c r="CO14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.17290989908703203</v>
+        <v>0.14217947786560947</v>
       </c>
       <c r="CP14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.13756058736218979</v>
+        <v>0.145178605303386</v>
       </c>
       <c r="CQ14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.21466610338152536</v>
+        <v>0.12971581219970618</v>
       </c>
       <c r="CR14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.14899525707717709</v>
+        <v>9.2756235904381867E-2</v>
       </c>
       <c r="CS14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.12847039821934803</v>
+        <v>0.11843793085185794</v>
       </c>
       <c r="CT14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.11630810826900362</v>
+        <v>0.10734225437186184</v>
       </c>
       <c r="CU14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.13307461909328167</v>
+        <v>0.11341677905050473</v>
       </c>
       <c r="CV14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.14815963880122784</v>
+        <v>0.1617178263778718</v>
       </c>
       <c r="CW14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.14125531413533499</v>
+        <v>0.14751934715590775</v>
       </c>
       <c r="CX14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.12431927411489174</v>
+        <v>0.10957617705739864</v>
       </c>
       <c r="CY14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.14250682936915293</v>
+        <v>0.1312882517215106</v>
       </c>
       <c r="CZ14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.11884999195782542</v>
+        <v>0.13574664089944521</v>
       </c>
       <c r="DA14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>9.436733328169522E-2</v>
+        <v>0.12924429828469663</v>
       </c>
       <c r="DB14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>7.1621709787345056E-2</v>
+        <v>0.10882934713434067</v>
       </c>
       <c r="DC14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>-2.3125872065017594E-2</v>
+        <v>7.8068304554756773E-2</v>
       </c>
       <c r="DD14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>-1.8384307126483757E-2</v>
+        <v>9.4931645438274481E-2</v>
       </c>
       <c r="DE14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>-7.4063980948203989E-2</v>
+        <v>3.9321057147229332E-2</v>
       </c>
       <c r="DF14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>-5.1232400824423818E-2</v>
+        <v>2.304707401659134E-2</v>
       </c>
       <c r="DG14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.17690048565114624</v>
+        <v>1.6091719182573794E-3</v>
       </c>
       <c r="DH14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.15003803247480563</v>
+        <v>8.1162734013513482E-3</v>
       </c>
     </row>
     <row r="15" spans="1:124" x14ac:dyDescent="0.4">
-      <c r="H15">
-        <f ca="1">COUNTIF(H14:DH14,"&lt;0")</f>
-        <v>24</v>
+      <c r="H15" s="16">
+        <f ca="1">1-COUNTIF(H14:DH14,"&lt;0")/105</f>
+        <v>0.87619047619047619</v>
       </c>
     </row>
     <row r="17" spans="5:204" x14ac:dyDescent="0.4">
@@ -13161,598 +13175,598 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.94915216008191805</v>
+        <v>0.93886411546049797</v>
       </c>
       <c r="H18">
-        <v>1.0009618010001899</v>
+        <v>1.0714788626446199</v>
       </c>
       <c r="I18">
-        <v>1.12764579470176</v>
+        <v>1.1623514734425</v>
       </c>
       <c r="J18">
-        <v>1.07070006775978</v>
+        <v>1.0444684210633199</v>
       </c>
       <c r="K18">
-        <v>0.89833636291586105</v>
+        <v>0.90794893904625895</v>
       </c>
       <c r="L18">
-        <v>1.0077701350658199</v>
+        <v>1.0097571653772399</v>
       </c>
       <c r="M18">
-        <v>0.92603601491884202</v>
+        <v>0.941865532067652</v>
       </c>
       <c r="N18">
-        <v>1.08535462606997</v>
+        <v>1.0923737610856801</v>
       </c>
       <c r="O18">
-        <v>1.2125969202122699</v>
+        <v>1.21971439238028</v>
       </c>
       <c r="P18">
-        <v>1.0634042907519601</v>
+        <v>1.0661089923354401</v>
       </c>
       <c r="Q18">
-        <v>1.0730534878711799</v>
+        <v>1.07891357997256</v>
       </c>
       <c r="R18">
-        <v>1.13149279619013</v>
+        <v>1.12415369883563</v>
       </c>
       <c r="S18">
-        <v>1.1406724998056801</v>
+        <v>1.1345377070999301</v>
       </c>
       <c r="T18">
-        <v>0.92050450900663106</v>
+        <v>0.91758143179809404</v>
       </c>
       <c r="U18">
-        <v>0.88143011978180796</v>
+        <v>0.880399052835799</v>
       </c>
       <c r="V18">
-        <v>0.93313532998262005</v>
+        <v>0.93173864346713897</v>
       </c>
       <c r="W18">
-        <v>0.99413861456275399</v>
+        <v>0.98783886929220599</v>
       </c>
       <c r="X18">
-        <v>1.05209317766781</v>
+        <v>1.04783820892529</v>
       </c>
       <c r="Y18">
-        <v>0.89478015765055297</v>
+        <v>0.86232366357811696</v>
       </c>
       <c r="Z18">
-        <v>1.0310067843437101</v>
+        <v>1.05224013852053</v>
       </c>
       <c r="AA18">
-        <v>1.0726505863148299</v>
+        <v>1.10107917886901</v>
       </c>
       <c r="AB18">
-        <v>0.86274575735843495</v>
+        <v>0.85083753411960095</v>
       </c>
       <c r="AC18">
-        <v>0.94392433338344806</v>
+        <v>0.93752147715884004</v>
       </c>
       <c r="AD18">
-        <v>1.0052881466008601</v>
+        <v>1.0241826091272299</v>
       </c>
       <c r="AE18">
-        <v>0.94264265627463095</v>
+        <v>0.94210763766349204</v>
       </c>
       <c r="AF18">
-        <v>1.1314130998549301</v>
+        <v>1.1232145398053399</v>
       </c>
       <c r="AG18">
-        <v>1.08620006747929</v>
+        <v>1.1196862890707899</v>
       </c>
       <c r="AH18">
-        <v>1.01090719088169</v>
+        <v>1.0301246574726399</v>
       </c>
       <c r="AI18">
-        <v>1.06049543690101</v>
+        <v>1.06299439470361</v>
       </c>
       <c r="AJ18">
-        <v>1.0924652802224899</v>
+        <v>1.0849648991409899</v>
       </c>
       <c r="AK18">
-        <v>0.94440859704591995</v>
+        <v>0.93646319943725398</v>
       </c>
       <c r="AL18">
-        <v>1.11050318928294</v>
+        <v>1.11618790171702</v>
       </c>
       <c r="AM18">
-        <v>1.0495247247986501</v>
+        <v>1.04553356594363</v>
       </c>
       <c r="AN18">
-        <v>1.00909951776275</v>
+        <v>1.00791868035139</v>
       </c>
       <c r="AO18">
-        <v>1.01139158430401</v>
+        <v>1.0249355398439199</v>
       </c>
       <c r="AP18">
-        <v>1.0276346112668</v>
+        <v>1.0281060777039099</v>
       </c>
       <c r="AQ18">
-        <v>1.03352696056608</v>
+        <v>1.04393902502248</v>
       </c>
       <c r="AR18">
-        <v>1.02296496721372</v>
+        <v>1.0246289743556201</v>
       </c>
       <c r="AS18">
-        <v>0.910098546459572</v>
+        <v>0.91276633726192202</v>
       </c>
       <c r="AT18">
-        <v>0.97261571641775901</v>
+        <v>0.96888501864112697</v>
       </c>
       <c r="AU18">
-        <v>0.94553821768497803</v>
+        <v>0.95325735623574803</v>
       </c>
       <c r="AV18">
-        <v>1.08701632556455</v>
+        <v>1.11530884721182</v>
       </c>
       <c r="AW18">
-        <v>1.07093732378627</v>
+        <v>1.0506811839103201</v>
       </c>
       <c r="AX18">
-        <v>1.01805838016837</v>
+        <v>1.07608402613362</v>
       </c>
       <c r="AY18">
-        <v>1.0813383347494301</v>
+        <v>1.07558887546338</v>
       </c>
       <c r="AZ18">
-        <v>1.02420120978353</v>
+        <v>1.00125028557337</v>
       </c>
       <c r="BA18">
-        <v>1.0612672584143801</v>
+        <v>1.05606207813869</v>
       </c>
       <c r="BB18">
-        <v>1.10347050461187</v>
+        <v>1.15571059530853</v>
       </c>
       <c r="BC18">
-        <v>0.99457417441582696</v>
+        <v>0.98088856463937801</v>
       </c>
       <c r="BD18">
-        <v>0.94645225926630006</v>
+        <v>0.95407820959243705</v>
       </c>
       <c r="BE18">
-        <v>1.0319463280711001</v>
+        <v>1.0421490322242699</v>
       </c>
       <c r="BF18">
-        <v>1.0889041282071299</v>
+        <v>1.10413744735898</v>
       </c>
       <c r="BG18">
-        <v>1.0707872269046901</v>
+        <v>1.1032308129377799</v>
       </c>
       <c r="BH18">
-        <v>0.98333537092855605</v>
+        <v>1.0057192155024</v>
       </c>
       <c r="BI18">
-        <v>1.12104177676485</v>
+        <v>1.1584889524628501</v>
       </c>
       <c r="BJ18">
-        <v>1.03779238486346</v>
+        <v>1.02307869756849</v>
       </c>
       <c r="BK18">
-        <v>1.10173890104982</v>
+        <v>1.09066614191707</v>
       </c>
       <c r="BL18">
-        <v>1.02695602365852</v>
+        <v>0.99215035412924701</v>
       </c>
       <c r="BM18">
-        <v>0.99612913995475205</v>
+        <v>0.980899643154171</v>
       </c>
       <c r="BN18">
-        <v>0.95890927450465901</v>
+        <v>0.95760991975541898</v>
       </c>
       <c r="BO18">
-        <v>1.0186509348033299</v>
+        <v>0.99737719576886896</v>
       </c>
       <c r="BP18">
-        <v>1.0750589213958299</v>
+        <v>1.06236062816583</v>
       </c>
       <c r="BQ18">
-        <v>0.96157986759858205</v>
+        <v>0.92633521694927601</v>
       </c>
       <c r="BR18">
-        <v>0.94761530118439696</v>
+        <v>0.94119263298100198</v>
       </c>
       <c r="BS18">
-        <v>0.96972700526490896</v>
+        <v>0.98426424630307197</v>
       </c>
       <c r="BT18">
-        <v>1.0133217518212501</v>
+        <v>1.0322548889301699</v>
       </c>
       <c r="BU18">
-        <v>1.0101417685685501</v>
+        <v>1.02327277536999</v>
       </c>
       <c r="BV18">
-        <v>1.00211090810321</v>
+        <v>1.0305806687219801</v>
       </c>
       <c r="BW18">
-        <v>1.1190689513742</v>
+        <v>1.0913827393006601</v>
       </c>
       <c r="BX18">
-        <v>0.97158820875109897</v>
+        <v>0.95950824315418903</v>
       </c>
       <c r="BY18">
-        <v>0.93746540406510004</v>
+        <v>0.93593128040010398</v>
       </c>
       <c r="BZ18">
-        <v>0.99544816428938798</v>
+        <v>1.02716182185058</v>
       </c>
       <c r="CA18">
-        <v>1.03723954471116</v>
+        <v>1.07274337909925</v>
       </c>
       <c r="CB18">
-        <v>1.1327099165385901</v>
+        <v>1.11889382330397</v>
       </c>
       <c r="CC18">
-        <v>1.2014992630510599</v>
+        <v>1.21951251215176</v>
       </c>
       <c r="CD18">
-        <v>1.0642062937596899</v>
+        <v>1.0422931672332001</v>
       </c>
       <c r="CE18">
-        <v>1.12301232732629</v>
+        <v>1.1117992389325</v>
       </c>
       <c r="CF18">
-        <v>0.97485647073029102</v>
+        <v>0.94290204715969295</v>
       </c>
       <c r="CG18">
-        <v>1.0143568466195401</v>
+        <v>0.97800301227818198</v>
       </c>
       <c r="CH18">
-        <v>0.93898913894852898</v>
+        <v>0.99615717975121998</v>
       </c>
       <c r="CI18">
-        <v>0.98359068800483396</v>
+        <v>0.95253048868464096</v>
       </c>
       <c r="CJ18">
-        <v>1.0260111877690601</v>
+        <v>1.0328234983466</v>
       </c>
       <c r="CK18">
-        <v>0.90621741645417497</v>
+        <v>0.88512632367351696</v>
       </c>
       <c r="CL18">
-        <v>1.04491711372965</v>
+        <v>1.0483258355974101</v>
       </c>
       <c r="CM18">
-        <v>0.98162005940469499</v>
+        <v>0.95269512967554204</v>
       </c>
       <c r="CN18">
-        <v>1.0201320058916099</v>
+        <v>1.0722091940191001</v>
       </c>
       <c r="CO18">
-        <v>1.0256223344127</v>
+        <v>1.0587175466972201</v>
       </c>
       <c r="CP18">
-        <v>0.94952896349242799</v>
+        <v>0.943347527402562</v>
       </c>
       <c r="CQ18">
-        <v>0.93122109626941596</v>
+        <v>0.91551426183888096</v>
       </c>
       <c r="CR18">
-        <v>0.93277470028772203</v>
+        <v>0.94033306504752601</v>
       </c>
       <c r="CS18">
-        <v>0.98495750367957502</v>
+        <v>0.99450204399236397</v>
       </c>
       <c r="CT18">
-        <v>0.77045033028733301</v>
+        <v>0.75281625618103398</v>
       </c>
       <c r="CU18">
-        <v>1.00269699707662</v>
+        <v>0.97453209132093799</v>
       </c>
       <c r="CV18">
-        <v>1.0043235732025599</v>
+        <v>1.0292524293362399</v>
       </c>
       <c r="CW18">
-        <v>0.98234798703125903</v>
+        <v>1.0094856258879099</v>
       </c>
       <c r="CX18">
-        <v>0.97474952134066795</v>
+        <v>0.93417230779651195</v>
       </c>
       <c r="CY18">
-        <v>1.07627614530257</v>
+        <v>1.1930025354500999</v>
       </c>
       <c r="CZ18">
-        <v>1.13858707772944</v>
+        <v>1.1313458470440401</v>
       </c>
       <c r="DA18">
-        <v>1.02894749347563</v>
+        <v>0.99926755352499497</v>
       </c>
       <c r="DB18">
-        <v>0.99631634253132595</v>
+        <v>0.977311857499776</v>
       </c>
       <c r="DC18">
-        <v>1.04172694731377</v>
+        <v>1.0702954341065101</v>
       </c>
       <c r="DD18">
-        <v>1.02677951558738</v>
+        <v>1.05173049797721</v>
       </c>
       <c r="DE18">
-        <v>0.99381674948127396</v>
+        <v>0.996186593883019</v>
       </c>
       <c r="DF18">
-        <v>0.97049949046245398</v>
+        <v>0.95502480387028199</v>
       </c>
       <c r="DG18">
-        <v>0.98590011620096396</v>
+        <v>1.0099128016045</v>
       </c>
       <c r="DH18">
-        <v>1.0587652300420201</v>
+        <v>1.1103006709732699</v>
       </c>
       <c r="DI18">
-        <v>0.93888484038909803</v>
+        <v>0.933470126812741</v>
       </c>
       <c r="DJ18">
-        <v>1.01109337302948</v>
+        <v>0.99668609239984696</v>
       </c>
       <c r="DK18">
-        <v>1.05490502598634</v>
+        <v>1.0609243710452601</v>
       </c>
       <c r="DL18">
-        <v>1.02001896005172</v>
+        <v>1.0327575015457799</v>
       </c>
       <c r="DM18">
-        <v>0.97877831495094503</v>
+        <v>0.96011673683509902</v>
       </c>
       <c r="DN18">
-        <v>1.0156191284834499</v>
+        <v>1.0503601631509001</v>
       </c>
       <c r="DO18">
-        <v>0.99222090095981097</v>
+        <v>1.0253160403027199</v>
       </c>
       <c r="DP18">
-        <v>0.98016007377118397</v>
+        <v>0.993107646660634</v>
       </c>
       <c r="DQ18">
-        <v>1.06114947609355</v>
+        <v>1.0756356728924501</v>
       </c>
       <c r="DR18">
-        <v>1.09029941086523</v>
+        <v>1.0743299098388199</v>
       </c>
       <c r="DS18">
-        <v>1.0612215110748899</v>
+        <v>1.0578075315778099</v>
       </c>
       <c r="DT18">
-        <v>1.04239065654427</v>
+        <v>1.04024841905295</v>
       </c>
       <c r="DU18">
-        <v>0.98943558767686701</v>
+        <v>1.00145213378083</v>
       </c>
       <c r="DV18">
-        <v>0.95411476930720995</v>
+        <v>0.91252228679746294</v>
       </c>
       <c r="DW18">
-        <v>1.06794955492613</v>
+        <v>1.08817032364282</v>
       </c>
       <c r="DX18">
-        <v>1.01446235651238</v>
+        <v>1.0550173032049499</v>
       </c>
       <c r="DY18">
-        <v>0.97648682001812204</v>
+        <v>0.965654947089025</v>
       </c>
       <c r="DZ18">
-        <v>1.0065910520841399</v>
+        <v>0.99802989562126299</v>
       </c>
       <c r="EA18">
-        <v>1.0572575095621199</v>
+        <v>1.1152705015887501</v>
       </c>
       <c r="EB18">
-        <v>0.89615500805967796</v>
+        <v>0.86635794134285604</v>
       </c>
       <c r="EC18">
-        <v>0.92789498396732895</v>
+        <v>0.937839278655897</v>
       </c>
       <c r="ED18">
-        <v>1.0407391494770599</v>
+        <v>1.09439740461443</v>
       </c>
       <c r="EE18">
-        <v>1.02345477417048</v>
+        <v>1.0215910901440399</v>
       </c>
       <c r="EF18">
-        <v>0.99584814082648199</v>
+        <v>1.0120442442617901</v>
       </c>
       <c r="EG18">
-        <v>1.01493041990393</v>
+        <v>1.0566975990131</v>
       </c>
       <c r="EH18">
-        <v>1.06163231919521</v>
+        <v>1.0641078608043999</v>
       </c>
       <c r="EI18">
-        <v>0.98098454928248502</v>
+        <v>0.97458354079993204</v>
       </c>
       <c r="EJ18">
-        <v>0.98430841678168202</v>
+        <v>0.98167010416684097</v>
       </c>
       <c r="EK18">
-        <v>0.93847923277317302</v>
+        <v>0.93988757604763495</v>
       </c>
       <c r="EL18">
-        <v>1.04486925106666</v>
+        <v>1.0393803307954901</v>
       </c>
       <c r="EM18">
-        <v>1.02339222841508</v>
+        <v>1.01812509545783</v>
       </c>
       <c r="EN18">
-        <v>1.0322140598181899</v>
+        <v>1.03168726762658</v>
       </c>
       <c r="EO18">
-        <v>1.0910756682112499</v>
+        <v>1.10218282686836</v>
       </c>
       <c r="EP18">
-        <v>1.0279318836164599</v>
+        <v>0.98469879734961696</v>
       </c>
       <c r="EQ18">
-        <v>0.99751611800288098</v>
+        <v>1.0390346701404201</v>
       </c>
       <c r="ER18">
-        <v>1.01604338315642</v>
+        <v>1.0188131080190701</v>
       </c>
       <c r="ES18">
-        <v>1.0033773120195599</v>
+        <v>1.0169384851868399</v>
       </c>
       <c r="ET18">
-        <v>1.05444560395792</v>
+        <v>1.05550738383829</v>
       </c>
       <c r="EU18">
-        <v>1.0423762724140999</v>
+        <v>1.0515922347612201</v>
       </c>
       <c r="EV18">
-        <v>1.0664759562847601</v>
+        <v>1.0877781229371499</v>
       </c>
       <c r="EW18">
-        <v>1.01944474821914</v>
+        <v>1.0098666601239601</v>
       </c>
       <c r="EX18">
-        <v>0.91035770750371103</v>
+        <v>0.89581407842418903</v>
       </c>
       <c r="EY18">
-        <v>1.00814264580914</v>
+        <v>1.0081712601542001</v>
       </c>
       <c r="EZ18">
-        <v>0.99776335938660199</v>
+        <v>1.0049628222284499</v>
       </c>
       <c r="FA18">
-        <v>1.0119566330657599</v>
+        <v>1.00878368226891</v>
       </c>
       <c r="FB18">
-        <v>1.0191877584860101</v>
+        <v>1.0256854331995899</v>
       </c>
       <c r="FC18">
-        <v>1.0245665611654899</v>
+        <v>1.00792873581415</v>
       </c>
       <c r="FD18">
-        <v>0.97795364062954704</v>
+        <v>0.97522570571255296</v>
       </c>
       <c r="FE18">
-        <v>1.05034050767207</v>
+        <v>0.99810388246044601</v>
       </c>
       <c r="FF18">
-        <v>1.0802169394174901</v>
+        <v>1.03958680446033</v>
       </c>
       <c r="FG18">
-        <v>1.02796495481842</v>
+        <v>1.013102663245</v>
       </c>
       <c r="FH18">
-        <v>1.0040459766830401</v>
+        <v>1.0101898071522399</v>
       </c>
       <c r="FI18">
-        <v>1.021307295985</v>
+        <v>1.0389594074827899</v>
       </c>
       <c r="FJ18">
-        <v>0.987704851080205</v>
+        <v>0.98612471031107296</v>
       </c>
       <c r="FK18">
-        <v>1.06426362846836</v>
+        <v>1.0551177509846099</v>
       </c>
       <c r="FL18">
-        <v>1.0532783639235299</v>
+        <v>1.0684112894117801</v>
       </c>
       <c r="FM18">
-        <v>1.01204368300433</v>
+        <v>1.0213022657983799</v>
       </c>
       <c r="FN18">
-        <v>1.00784751464406</v>
+        <v>0.99644091587706496</v>
       </c>
       <c r="FO18">
-        <v>0.97832607156807805</v>
+        <v>0.995224260033165</v>
       </c>
       <c r="FP18">
-        <v>0.994886651057307</v>
+        <v>1.0395775218012899</v>
       </c>
       <c r="FQ18">
-        <v>1.05880826615702</v>
+        <v>1.0744367049592001</v>
       </c>
       <c r="FR18">
-        <v>1.0640643863572901</v>
+        <v>1.01857472627059</v>
       </c>
       <c r="FS18">
-        <v>1.05183155182651</v>
+        <v>1.0709555802808</v>
       </c>
       <c r="FT18">
-        <v>1.08565541801608</v>
+        <v>1.0937823251010901</v>
       </c>
       <c r="FU18">
-        <v>1.0242889669155699</v>
+        <v>0.99570461605050498</v>
       </c>
       <c r="FV18">
-        <v>0.99015138730224495</v>
+        <v>1.0077245131863599</v>
       </c>
       <c r="FW18">
-        <v>0.97675595153117301</v>
+        <v>0.99245599407973994</v>
       </c>
       <c r="FX18">
-        <v>0.948060194862404</v>
+        <v>0.93726861998406197</v>
       </c>
       <c r="FY18">
-        <v>1.0189847004075301</v>
+        <v>1.00590907069952</v>
       </c>
       <c r="FZ18">
-        <v>1.0315040350767699</v>
+        <v>1.03869834245757</v>
       </c>
       <c r="GA18">
-        <v>0.98311665476233701</v>
+        <v>0.97893970592816104</v>
       </c>
       <c r="GB18">
-        <v>0.99413117037253695</v>
+        <v>1.0171183262846599</v>
       </c>
       <c r="GC18">
-        <v>0.98423929914424702</v>
+        <v>0.96938901413451894</v>
       </c>
       <c r="GD18">
-        <v>1.01695596581334</v>
+        <v>1.0070258949640301</v>
       </c>
       <c r="GE18">
-        <v>1.13747307829468</v>
+        <v>1.06827281916525</v>
       </c>
       <c r="GF18">
-        <v>0.98909256845440596</v>
+        <v>1.01738851795161</v>
       </c>
       <c r="GG18">
-        <v>1.0053159877642199</v>
+        <v>1.02091268347353</v>
       </c>
       <c r="GH18">
-        <v>0.990062013265677</v>
+        <v>1.0086502485022899</v>
       </c>
       <c r="GI18">
-        <v>1.0316771670496401</v>
+        <v>1.03869673279509</v>
       </c>
       <c r="GJ18">
-        <v>1.0069460188284201</v>
+        <v>1.0246533364618999</v>
       </c>
       <c r="GK18">
-        <v>1.00730319584369</v>
+        <v>0.98844136430217799</v>
       </c>
       <c r="GL18">
-        <v>0.97166266789199696</v>
+        <v>0.96040082625316403</v>
       </c>
       <c r="GM18">
-        <v>1.0046627788342699</v>
+        <v>1.00382130123405</v>
       </c>
       <c r="GN18">
-        <v>1.0062039215680101</v>
+        <v>1.0549666107590701</v>
       </c>
       <c r="GO18">
-        <v>1.0044277306513301</v>
+        <v>1.00389600070191</v>
       </c>
       <c r="GP18">
-        <v>1.0058993359817601</v>
+        <v>0.99833144792944595</v>
       </c>
       <c r="GQ18">
-        <v>1.0360605480928899</v>
+        <v>1.03293944022923</v>
       </c>
       <c r="GR18">
-        <v>1.01555177255431</v>
+        <v>1.0528588883679399</v>
       </c>
       <c r="GS18">
-        <v>1.0255398456337701</v>
+        <v>1.03957109617502</v>
       </c>
       <c r="GT18">
-        <v>1.03754554037337</v>
+        <v>1.0202837077521201</v>
       </c>
       <c r="GU18">
-        <v>1.21442557099588</v>
+        <v>1.0020670139019101</v>
       </c>
       <c r="GV18">
-        <v>0.96493642541362201</v>
+        <v>1.0042786048355199</v>
       </c>
     </row>
     <row r="20" spans="5:204" x14ac:dyDescent="0.4">
@@ -21452,8 +21466,9 @@
     <hyperlink ref="A1" tooltip="Quantiwise7G" display="     Refresh     "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -21461,8 +21476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -21477,7 +21492,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f>A1+1</f>
+        <f t="shared" ref="A2:A13" si="0">A1+1</f>
         <v>33</v>
       </c>
       <c r="B2" t="s">
@@ -21486,7 +21501,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
-        <f>A2+1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B3" t="s">
@@ -21495,7 +21510,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
-        <f>A3+1</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B4" t="s">
@@ -21504,7 +21519,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
-        <f>A4+1</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B5" t="s">
@@ -21513,7 +21528,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
-        <f>A5+1</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B6" t="s">
@@ -21522,7 +21537,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
-        <f>A6+1</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B7" t="s">
@@ -21531,7 +21546,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B8" t="s">
@@ -21540,7 +21555,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
-        <f>A8+1</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B9" t="s">
@@ -21549,7 +21564,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <f>A9+1</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B10" t="s">
@@ -21558,7 +21573,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
-        <f>A10+1</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B11" t="s">
@@ -21567,7 +21582,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
-        <f>A11+1</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B12" t="s">
@@ -21576,7 +21591,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
-        <f>A12+1</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B13" t="s">
